--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -1085,11 +1085,7 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>60</v>
       </c>
@@ -1133,11 +1129,7 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>60</v>
       </c>
@@ -1325,11 +1317,7 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>60</v>
       </c>
@@ -2077,11 +2065,7 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>60</v>
       </c>
@@ -2173,11 +2157,7 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>INDENIZACAO SINISTRO - PRINC.</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>60</v>
       </c>
@@ -4341,11 +4321,7 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>90</v>
       </c>
@@ -5061,11 +5037,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>13</v>
       </c>
@@ -5109,11 +5081,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>23</v>
       </c>
@@ -6261,11 +6229,7 @@
       <c r="E125" t="n">
         <v>79</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
         <v>0</v>
       </c>
@@ -8205,11 +8169,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
         <v>59</v>
       </c>
@@ -11385,11 +11345,7 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
         <v>25</v>
       </c>
@@ -13449,11 +13405,7 @@
           <t>1219991206000</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - MJM - PECULIO</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="n">
         <v>60</v>
       </c>
@@ -15417,11 +15369,7 @@
           <t>1999992116000</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RENDAS DE LOTERIA CONVENCIONAL</t>
-        </is>
-      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="n">
         <v>60</v>
       </c>
@@ -15941,11 +15889,7 @@
           <t>1741990127999</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>EDUCACAO - OUTROS</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
         <v>45</v>
       </c>
@@ -17217,11 +17161,7 @@
           <t>1611010228000</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - MJM - CONSULTORIA, ASSISTENCIA TECNICA E ANALISE DE PROJETOS</t>
-        </is>
-      </c>
+      <c r="D356" t="inlineStr"/>
       <c r="E356" t="n">
         <v>60</v>
       </c>
@@ -17417,11 +17357,7 @@
       <c r="E360" t="n">
         <v>79</v>
       </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
         <v>0</v>
       </c>
@@ -18585,11 +18521,7 @@
           <t>1349010301000</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
-        </is>
-      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
         <v>61</v>
       </c>
@@ -18633,11 +18565,7 @@
           <t>1349010401000</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
-        </is>
-      </c>
+      <c r="D386" t="inlineStr"/>
       <c r="E386" t="n">
         <v>61</v>
       </c>
@@ -18929,11 +18857,7 @@
       <c r="E392" t="n">
         <v>79</v>
       </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F392" t="inlineStr"/>
       <c r="G392" t="n">
         <v>0</v>
       </c>
@@ -19305,11 +19229,7 @@
           <t>1215521102000</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="E400" t="n">
         <v>50</v>
       </c>
@@ -19353,11 +19273,7 @@
           <t>1215521103000</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="E401" t="n">
         <v>50</v>
       </c>
@@ -19401,11 +19317,7 @@
           <t>1215522102000</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D402" t="inlineStr"/>
       <c r="E402" t="n">
         <v>50</v>
       </c>
@@ -19449,11 +19361,7 @@
           <t>1215522103000</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D403" t="inlineStr"/>
       <c r="E403" t="n">
         <v>50</v>
       </c>
@@ -19593,11 +19501,7 @@
           <t>1219991103003</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - ATIVO</t>
-        </is>
-      </c>
+      <c r="D406" t="inlineStr"/>
       <c r="E406" t="n">
         <v>50</v>
       </c>
@@ -19641,11 +19545,7 @@
           <t>1219991103004</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - INATIVO</t>
-        </is>
-      </c>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
         <v>50</v>
       </c>
@@ -19689,11 +19589,7 @@
           <t>1219991103005</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D408" t="inlineStr"/>
       <c r="E408" t="n">
         <v>50</v>
       </c>
@@ -19737,11 +19633,7 @@
           <t>1219991103006</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
         <v>50</v>
       </c>
@@ -20457,11 +20349,7 @@
           <t>7215531101000</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D424" t="inlineStr"/>
       <c r="E424" t="n">
         <v>49</v>
       </c>
@@ -20505,11 +20393,7 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D425" t="inlineStr"/>
       <c r="E425" t="n">
         <v>49</v>
       </c>
@@ -20553,11 +20437,7 @@
           <t>7215532101000</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D426" t="inlineStr"/>
       <c r="E426" t="n">
         <v>49</v>
       </c>
@@ -20601,11 +20481,7 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D427" t="inlineStr"/>
       <c r="E427" t="n">
         <v>49</v>
       </c>
@@ -20745,11 +20621,7 @@
           <t>7219991103053</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - ATIVO</t>
-        </is>
-      </c>
+      <c r="D430" t="inlineStr"/>
       <c r="E430" t="n">
         <v>49</v>
       </c>
@@ -20793,11 +20665,7 @@
           <t>7219991103054</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - INATIVO</t>
-        </is>
-      </c>
+      <c r="D431" t="inlineStr"/>
       <c r="E431" t="n">
         <v>49</v>
       </c>
@@ -20841,11 +20709,7 @@
           <t>7219991103055</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D432" t="inlineStr"/>
       <c r="E432" t="n">
         <v>49</v>
       </c>
@@ -20889,11 +20753,7 @@
           <t>7219991103056</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D433" t="inlineStr"/>
       <c r="E433" t="n">
         <v>49</v>
       </c>
@@ -21881,11 +21741,7 @@
           <t>1761990139999</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>CULTURA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D454" t="inlineStr"/>
       <c r="E454" t="n">
         <v>45</v>
       </c>
@@ -23113,11 +22969,7 @@
       <c r="E480" t="n">
         <v>79</v>
       </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="n">
         <v>0</v>
       </c>
@@ -23393,11 +23245,7 @@
           <t>7121040104000</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
-        </is>
-      </c>
+      <c r="D486" t="inlineStr"/>
       <c r="E486" t="n">
         <v>91</v>
       </c>
@@ -24157,11 +24005,7 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="E502" t="n">
         <v>60</v>
       </c>
@@ -25721,11 +25565,7 @@
           <t>1923990103000</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>OUTROS RESSARCIMENTOS - PRINC. - FORMACAO ACADEMICA NA AREA DE SAUDE</t>
-        </is>
-      </c>
+      <c r="D535" t="inlineStr"/>
       <c r="E535" t="n">
         <v>60</v>
       </c>
@@ -28261,11 +28101,7 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="E589" t="n">
         <v>60</v>
       </c>
@@ -28549,11 +28385,7 @@
           <t>1631530201000</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>SERVICOS AMBULATORIAIS - MJM</t>
-        </is>
-      </c>
+      <c r="D595" t="inlineStr"/>
       <c r="E595" t="n">
         <v>60</v>
       </c>
@@ -32425,11 +32257,7 @@
           <t>7699990101000</t>
         </is>
       </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - OUTROS SERVICOS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D677" t="inlineStr"/>
       <c r="E677" t="n">
         <v>60</v>
       </c>
@@ -32845,11 +32673,7 @@
           <t>1611010129000</t>
         </is>
       </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - HOSPEDAGEM E ALIMENTACAO</t>
-        </is>
-      </c>
+      <c r="D686" t="inlineStr"/>
       <c r="E686" t="n">
         <v>60</v>
       </c>
@@ -35333,11 +35157,7 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D738" t="inlineStr"/>
       <c r="E738" t="n">
         <v>60</v>
       </c>
@@ -35381,11 +35201,7 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D739" t="inlineStr"/>
       <c r="E739" t="n">
         <v>77</v>
       </c>
@@ -36055,7 +35871,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E753" t="n">
@@ -36477,7 +36293,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -36525,7 +36341,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -36573,7 +36389,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -37721,11 +37537,7 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="n">
         <v>59</v>
       </c>
@@ -38201,11 +38013,7 @@
           <t>1611030105000</t>
         </is>
       </c>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>SERVICOS REG. CERTIF. FISCALIZ. - PRINC. - INSPECAO E FISCALIZACAO</t>
-        </is>
-      </c>
+      <c r="D799" t="inlineStr"/>
       <c r="E799" t="n">
         <v>60</v>
       </c>
@@ -39305,11 +39113,7 @@
           <t>7729990127000</t>
         </is>
       </c>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - OUTRAS TRANSF. ESTADOS DF - PRINC. - REPASSE DO FUNDO ESPECIAL DO MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - FUNEMP</t>
-        </is>
-      </c>
+      <c r="D822" t="inlineStr"/>
       <c r="E822" t="n">
         <v>60</v>
       </c>
@@ -39835,7 +39639,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E833" t="n">
@@ -40361,11 +40165,7 @@
           <t>1321050101000</t>
         </is>
       </c>
-      <c r="D844" t="inlineStr">
-        <is>
-          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO DE APLICACAO FINANCEIRA - TITULOS DE CREDITO</t>
-        </is>
-      </c>
+      <c r="D844" t="inlineStr"/>
       <c r="E844" t="n">
         <v>60</v>
       </c>
@@ -40553,11 +40353,7 @@
           <t>1911090101003</t>
         </is>
       </c>
-      <c r="D848" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - DIREITOS DA CIDADANIA</t>
-        </is>
-      </c>
+      <c r="D848" t="inlineStr"/>
       <c r="E848" t="n">
         <v>60</v>
       </c>
@@ -41889,11 +41685,7 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D876" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D876" t="inlineStr"/>
       <c r="E876" t="n">
         <v>30</v>
       </c>
@@ -42753,11 +42545,7 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D894" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D894" t="inlineStr"/>
       <c r="E894" t="n">
         <v>75</v>
       </c>
@@ -42801,11 +42589,7 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D895" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D895" t="inlineStr"/>
       <c r="E895" t="n">
         <v>75</v>
       </c>
@@ -43045,11 +42829,7 @@
           <t>1999122101000</t>
         </is>
       </c>
-      <c r="D901" t="inlineStr">
-        <is>
-          <t>ONUS SUCUMBENCIA - PRINC. - HONORARIOS DE ADVOGADOS</t>
-        </is>
-      </c>
+      <c r="D901" t="inlineStr"/>
       <c r="E901" t="n">
         <v>60</v>
       </c>
@@ -44909,11 +44689,7 @@
           <t>1114501101002</t>
         </is>
       </c>
-      <c r="D942" t="inlineStr">
-        <is>
-          <t>ICMS - PRINC. - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D942" t="inlineStr"/>
       <c r="E942" t="n">
         <v>10</v>
       </c>
@@ -45101,11 +44877,7 @@
           <t>1114501201002</t>
         </is>
       </c>
-      <c r="D946" t="inlineStr">
-        <is>
-          <t>ICMS - MJM - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D946" t="inlineStr"/>
       <c r="E946" t="n">
         <v>10</v>
       </c>
@@ -47213,11 +46985,7 @@
           <t>1121010301002</t>
         </is>
       </c>
-      <c r="D990" t="inlineStr">
-        <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
-        </is>
-      </c>
+      <c r="D990" t="inlineStr"/>
       <c r="E990" t="n">
         <v>27</v>
       </c>
@@ -47453,11 +47221,7 @@
           <t>1121010401002</t>
         </is>
       </c>
-      <c r="D995" t="inlineStr">
-        <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
-        </is>
-      </c>
+      <c r="D995" t="inlineStr"/>
       <c r="E995" t="n">
         <v>27</v>
       </c>
@@ -49949,11 +49713,7 @@
           <t>1215521101000</t>
         </is>
       </c>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1047" t="inlineStr"/>
       <c r="E1047" t="n">
         <v>30</v>
       </c>
@@ -50141,11 +49901,7 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D1051" t="inlineStr"/>
       <c r="E1051" t="n">
         <v>30</v>
       </c>
@@ -50573,11 +50329,7 @@
           <t>1311020102000</t>
         </is>
       </c>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>CONC. PERM. AUTOR. CESSAO DIR. USO BENS IMOV. PUB. - PRINC. - CESSAO DO DIREITO DE EXPLORACAO DE ESTADIOS - ARENA INDEPENDENCIA</t>
-        </is>
-      </c>
+      <c r="D1060" t="inlineStr"/>
       <c r="E1060" t="n">
         <v>15</v>
       </c>
@@ -50813,11 +50565,7 @@
           <t>1311990101000</t>
         </is>
       </c>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. IMOBILIARIAS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1065" t="inlineStr"/>
       <c r="E1065" t="n">
         <v>15</v>
       </c>
@@ -50861,11 +50609,7 @@
           <t>1311990201000</t>
         </is>
       </c>
-      <c r="D1066" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. IMOBILIARIAS - MJM</t>
-        </is>
-      </c>
+      <c r="D1066" t="inlineStr"/>
       <c r="E1066" t="n">
         <v>15</v>
       </c>
@@ -51917,11 +51661,7 @@
           <t>1321020101000</t>
         </is>
       </c>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS ESPECIAIS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1088" t="inlineStr"/>
       <c r="E1088" t="n">
         <v>15</v>
       </c>
@@ -51965,11 +51705,7 @@
           <t>1321050102000</t>
         </is>
       </c>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO FINANCEIRO - ATIVO BDMG/CREDIREAL/BEMGE - SANEAMENTO SISTEMA FINANCEIRO</t>
-        </is>
-      </c>
+      <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="n">
         <v>15</v>
       </c>
@@ -52637,11 +52373,7 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
-        </is>
-      </c>
+      <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="n">
         <v>60</v>
       </c>
@@ -53933,11 +53665,7 @@
           <t>1611010135000</t>
         </is>
       </c>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - REGISTRO ELETRONICO DE CONTRATO INTEGRAL</t>
-        </is>
-      </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="n">
         <v>15</v>
       </c>
@@ -55229,11 +54957,7 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="n">
         <v>90</v>
       </c>
@@ -55325,11 +55049,7 @@
           <t>1719620101000</t>
         </is>
       </c>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
-      </c>
+      <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="n">
         <v>19</v>
       </c>
@@ -55373,11 +55093,7 @@
           <t>1719620102000</t>
         </is>
       </c>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="n">
         <v>20</v>
       </c>
@@ -55421,11 +55137,7 @@
           <t>1719620103000</t>
         </is>
       </c>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="n">
         <v>23</v>
       </c>
@@ -55517,11 +55229,7 @@
           <t>1719990129000</t>
         </is>
       </c>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
-        </is>
-      </c>
+      <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="n">
         <v>15</v>
       </c>
@@ -55565,11 +55273,7 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="n">
         <v>11</v>
       </c>
@@ -55613,11 +55317,7 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="n">
         <v>60</v>
       </c>
@@ -55757,11 +55457,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="n">
         <v>11</v>
       </c>
@@ -55805,11 +55501,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="n">
         <v>59</v>
       </c>
@@ -55855,7 +55547,7 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1170" t="n">
@@ -55903,7 +55595,7 @@
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1171" t="n">
@@ -55951,7 +55643,7 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1172" t="n">
@@ -56093,11 +55785,7 @@
           <t>1751500102001</t>
         </is>
       </c>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - LC FEDERAL NO 87/96 - COTA PARTE DO ESTADO</t>
-        </is>
-      </c>
+      <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="n">
         <v>23</v>
       </c>
@@ -56765,11 +56453,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="n">
         <v>13</v>
       </c>
@@ -56813,11 +56497,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="n">
         <v>23</v>
       </c>
@@ -56957,11 +56637,7 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
-        </is>
-      </c>
+      <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="n">
         <v>26</v>
       </c>
@@ -57005,11 +56681,7 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
-        </is>
-      </c>
+      <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="n">
         <v>46</v>
       </c>
@@ -57341,11 +57013,7 @@
           <t>1911010104001</t>
         </is>
       </c>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1201" t="inlineStr"/>
       <c r="E1201" t="n">
         <v>15</v>
       </c>
@@ -57533,11 +57201,7 @@
           <t>1911010109000</t>
         </is>
       </c>
-      <c r="D1205" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DESMONTE DE VEICULOS</t>
-        </is>
-      </c>
+      <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="n">
         <v>15</v>
       </c>
@@ -57725,11 +57389,7 @@
           <t>1911010304001</t>
         </is>
       </c>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="n">
         <v>15</v>
       </c>
@@ -57973,11 +57633,7 @@
       <c r="E1214" t="n">
         <v>79</v>
       </c>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="n">
         <v>0</v>
       </c>
@@ -58205,11 +57861,7 @@
           <t>1911132101000</t>
         </is>
       </c>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISLACAO ANTICORRUPCAO ACORDOS LENIENCIA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="n">
         <v>15</v>
       </c>
@@ -58349,11 +58001,7 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>INDENIZACAO SINISTRO - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="n">
         <v>60</v>
       </c>
@@ -59021,11 +58669,7 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="n">
         <v>25</v>
       </c>
@@ -60029,11 +59673,7 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1257" t="inlineStr"/>
       <c r="E1257" t="n">
         <v>60</v>
       </c>
@@ -60077,11 +59717,7 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1258" t="inlineStr"/>
       <c r="E1258" t="n">
         <v>60</v>
       </c>
@@ -60365,11 +60001,7 @@
           <t>1999992101000</t>
         </is>
       </c>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RECURSOS DE DEPOSITOS JUDICIAIS</t>
-        </is>
-      </c>
+      <c r="D1264" t="inlineStr"/>
       <c r="E1264" t="n">
         <v>23</v>
       </c>
@@ -60605,11 +60237,7 @@
           <t>1999992113000</t>
         </is>
       </c>
-      <c r="D1269" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - CONVERSAO EM RENDA DE VALORES PENHORADOS EM ACOES JUDICIAIS</t>
-        </is>
-      </c>
+      <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="n">
         <v>15</v>
       </c>
@@ -61373,11 +61001,7 @@
           <t>2211020104000</t>
         </is>
       </c>
-      <c r="D1285" t="inlineStr">
-        <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
-        </is>
-      </c>
+      <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="n">
         <v>48</v>
       </c>
@@ -61421,11 +61045,7 @@
           <t>2211020105000</t>
         </is>
       </c>
-      <c r="D1286" t="inlineStr">
-        <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
-        </is>
-      </c>
+      <c r="D1286" t="inlineStr"/>
       <c r="E1286" t="n">
         <v>48</v>
       </c>
@@ -61999,7 +61619,7 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - DEMAIS RECURSOS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
       <c r="E1298" t="n">
@@ -62045,11 +61665,7 @@
           <t>2999990104000</t>
         </is>
       </c>
-      <c r="D1299" t="inlineStr">
-        <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - ACORDO JUDICIAL DE REPARACAO INTEGRAL E DEFINITIVA</t>
-        </is>
-      </c>
+      <c r="D1299" t="inlineStr"/>
       <c r="E1299" t="n">
         <v>80</v>
       </c>
@@ -62093,11 +61709,7 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D1300" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D1300" t="inlineStr"/>
       <c r="E1300" t="n">
         <v>75</v>
       </c>
@@ -62141,11 +61753,7 @@
           <t>7215531103000</t>
         </is>
       </c>
-      <c r="D1301" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1301" t="inlineStr"/>
       <c r="E1301" t="n">
         <v>75</v>
       </c>
@@ -62189,11 +61797,7 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D1302" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D1302" t="inlineStr"/>
       <c r="E1302" t="n">
         <v>75</v>
       </c>
@@ -62237,11 +61841,7 @@
           <t>7215532103000</t>
         </is>
       </c>
-      <c r="D1303" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1303" t="inlineStr"/>
       <c r="E1303" t="n">
         <v>75</v>
       </c>
@@ -62285,11 +61885,7 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D1304" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D1304" t="inlineStr"/>
       <c r="E1304" t="n">
         <v>75</v>
       </c>
@@ -62333,11 +61929,7 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D1305" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D1305" t="inlineStr"/>
       <c r="E1305" t="n">
         <v>75</v>
       </c>
@@ -62957,11 +62549,7 @@
           <t>9114501101002</t>
         </is>
       </c>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1318" t="inlineStr"/>
       <c r="E1318" t="n">
         <v>10</v>
       </c>
@@ -63101,11 +62689,7 @@
           <t>9114501201002</t>
         </is>
       </c>
-      <c r="D1321" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1321" t="inlineStr"/>
       <c r="E1321" t="n">
         <v>10</v>
       </c>
@@ -63773,11 +63357,7 @@
           <t>9719620102000</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1335" t="inlineStr"/>
       <c r="E1335" t="n">
         <v>20</v>
       </c>
@@ -63821,11 +63401,7 @@
           <t>9719620103000</t>
         </is>
       </c>
-      <c r="D1336" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
-        </is>
-      </c>
+      <c r="D1336" t="inlineStr"/>
       <c r="E1336" t="n">
         <v>23</v>
       </c>
@@ -63965,11 +63541,7 @@
           <t>9911010104001</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1339" t="inlineStr"/>
       <c r="E1339" t="n">
         <v>15</v>
       </c>
@@ -64013,11 +63585,7 @@
           <t>9911010304001</t>
         </is>
       </c>
-      <c r="D1340" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1340" t="inlineStr"/>
       <c r="E1340" t="n">
         <v>15</v>
       </c>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -30783,11 +30783,11 @@
         <v>51847195</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>63018030</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30831,11 +30831,11 @@
         <v>120616</v>
       </c>
       <c r="K646" t="n">
-        <v>0</v>
+        <v>179249</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30879,11 +30879,11 @@
         <v>1000</v>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30927,11 +30927,11 @@
         <v>3000</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -30975,11 +30975,11 @@
         <v>334017</v>
       </c>
       <c r="K649" t="n">
-        <v>0</v>
+        <v>367002</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31023,11 +31023,11 @@
         <v>313645</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>324642</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31071,11 +31071,11 @@
         <v>1073987</v>
       </c>
       <c r="K651" t="n">
-        <v>0</v>
+        <v>1179331</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31119,11 +31119,11 @@
         <v>796031</v>
       </c>
       <c r="K652" t="n">
-        <v>0</v>
+        <v>847114</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31167,11 +31167,11 @@
         <v>3792153</v>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>909785</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31263,11 +31263,11 @@
         <v>349844</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>235178</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31311,11 +31311,11 @@
         <v>48607</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>108182</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31407,11 +31407,11 @@
         <v>13837263</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>15570927</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -31455,11 +31455,11 @@
         <v>300000</v>
       </c>
       <c r="K659" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -36135,11 +36135,11 @@
         <v>100000</v>
       </c>
       <c r="K758" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -36183,11 +36183,11 @@
         <v>10000</v>
       </c>
       <c r="K759" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -36231,11 +36231,11 @@
         <v>1000000</v>
       </c>
       <c r="K760" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -36279,11 +36279,11 @@
         <v>100000</v>
       </c>
       <c r="K761" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -40187,11 +40187,11 @@
         <v>10000000</v>
       </c>
       <c r="K844" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -40235,11 +40235,11 @@
         <v>300000</v>
       </c>
       <c r="K845" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -40283,11 +40283,11 @@
         <v>500000</v>
       </c>
       <c r="K846" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -1085,7 +1085,11 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
+        </is>
+      </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
@@ -1129,7 +1133,11 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E15" t="n">
         <v>60</v>
       </c>
@@ -1317,7 +1325,11 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
+        </is>
+      </c>
       <c r="E19" t="n">
         <v>60</v>
       </c>
@@ -2065,7 +2077,11 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
+        </is>
+      </c>
       <c r="E35" t="n">
         <v>60</v>
       </c>
@@ -2157,7 +2173,11 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>INDENIZACAO SINISTRO - PRINC.</t>
+        </is>
+      </c>
       <c r="E37" t="n">
         <v>60</v>
       </c>
@@ -4321,7 +4341,11 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
+        </is>
+      </c>
       <c r="E84" t="n">
         <v>90</v>
       </c>
@@ -5037,7 +5061,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E99" t="n">
         <v>13</v>
       </c>
@@ -5081,7 +5109,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E100" t="n">
         <v>23</v>
       </c>
@@ -6229,7 +6261,11 @@
       <c r="E125" t="n">
         <v>79</v>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
@@ -8169,7 +8205,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E167" t="n">
         <v>59</v>
       </c>
@@ -11345,7 +11385,11 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E234" t="n">
         <v>25</v>
       </c>
@@ -13405,7 +13449,11 @@
           <t>1219991206000</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - MJM - PECULIO</t>
+        </is>
+      </c>
       <c r="E277" t="n">
         <v>60</v>
       </c>
@@ -15369,7 +15417,11 @@
           <t>1999992116000</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RENDAS DE LOTERIA CONVENCIONAL</t>
+        </is>
+      </c>
       <c r="E318" t="n">
         <v>60</v>
       </c>
@@ -15889,7 +15941,11 @@
           <t>1741990127999</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>EDUCACAO - OUTROS</t>
+        </is>
+      </c>
       <c r="E329" t="n">
         <v>45</v>
       </c>
@@ -17161,7 +17217,11 @@
           <t>1611010228000</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - MJM - CONSULTORIA, ASSISTENCIA TECNICA E ANALISE DE PROJETOS</t>
+        </is>
+      </c>
       <c r="E356" t="n">
         <v>60</v>
       </c>
@@ -17357,7 +17417,11 @@
       <c r="E360" t="n">
         <v>79</v>
       </c>
-      <c r="F360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G360" t="n">
         <v>0</v>
       </c>
@@ -18521,7 +18585,11 @@
           <t>1349010301000</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr"/>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+        </is>
+      </c>
       <c r="E385" t="n">
         <v>61</v>
       </c>
@@ -18565,7 +18633,11 @@
           <t>1349010401000</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+        </is>
+      </c>
       <c r="E386" t="n">
         <v>61</v>
       </c>
@@ -18857,7 +18929,11 @@
       <c r="E392" t="n">
         <v>79</v>
       </c>
-      <c r="F392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G392" t="n">
         <v>0</v>
       </c>
@@ -19229,7 +19305,11 @@
           <t>1215521102000</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E400" t="n">
         <v>50</v>
       </c>
@@ -19273,7 +19353,11 @@
           <t>1215521103000</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E401" t="n">
         <v>50</v>
       </c>
@@ -19317,7 +19401,11 @@
           <t>1215522102000</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E402" t="n">
         <v>50</v>
       </c>
@@ -19361,7 +19449,11 @@
           <t>1215522103000</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr"/>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E403" t="n">
         <v>50</v>
       </c>
@@ -19501,7 +19593,11 @@
           <t>1219991103003</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - ATIVO</t>
+        </is>
+      </c>
       <c r="E406" t="n">
         <v>50</v>
       </c>
@@ -19545,7 +19641,11 @@
           <t>1219991103004</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - INATIVO</t>
+        </is>
+      </c>
       <c r="E407" t="n">
         <v>50</v>
       </c>
@@ -19589,7 +19689,11 @@
           <t>1219991103005</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr"/>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E408" t="n">
         <v>50</v>
       </c>
@@ -19633,7 +19737,11 @@
           <t>1219991103006</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E409" t="n">
         <v>50</v>
       </c>
@@ -20349,7 +20457,11 @@
           <t>7215531101000</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E424" t="n">
         <v>49</v>
       </c>
@@ -20393,7 +20505,11 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E425" t="n">
         <v>49</v>
       </c>
@@ -20437,7 +20553,11 @@
           <t>7215532101000</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E426" t="n">
         <v>49</v>
       </c>
@@ -20481,7 +20601,11 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E427" t="n">
         <v>49</v>
       </c>
@@ -20621,7 +20745,11 @@
           <t>7219991103053</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - ATIVO</t>
+        </is>
+      </c>
       <c r="E430" t="n">
         <v>49</v>
       </c>
@@ -20665,7 +20793,11 @@
           <t>7219991103054</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - INATIVO</t>
+        </is>
+      </c>
       <c r="E431" t="n">
         <v>49</v>
       </c>
@@ -20709,7 +20841,11 @@
           <t>7219991103055</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr"/>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E432" t="n">
         <v>49</v>
       </c>
@@ -20753,7 +20889,11 @@
           <t>7219991103056</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E433" t="n">
         <v>49</v>
       </c>
@@ -21741,7 +21881,11 @@
           <t>1761990139999</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>CULTURA - OUTROS</t>
+        </is>
+      </c>
       <c r="E454" t="n">
         <v>45</v>
       </c>
@@ -22969,7 +23113,11 @@
       <c r="E480" t="n">
         <v>79</v>
       </c>
-      <c r="F480" t="inlineStr"/>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G480" t="n">
         <v>0</v>
       </c>
@@ -23245,7 +23393,11 @@
           <t>7121040104000</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+        </is>
+      </c>
       <c r="E486" t="n">
         <v>91</v>
       </c>
@@ -24005,7 +24157,11 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D502" t="inlineStr"/>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
+        </is>
+      </c>
       <c r="E502" t="n">
         <v>60</v>
       </c>
@@ -25565,7 +25721,11 @@
           <t>1923990103000</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>OUTROS RESSARCIMENTOS - PRINC. - FORMACAO ACADEMICA NA AREA DE SAUDE</t>
+        </is>
+      </c>
       <c r="E535" t="n">
         <v>60</v>
       </c>
@@ -28101,7 +28261,11 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
+        </is>
+      </c>
       <c r="E589" t="n">
         <v>60</v>
       </c>
@@ -28385,7 +28549,11 @@
           <t>1631530201000</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>SERVICOS AMBULATORIAIS - MJM</t>
+        </is>
+      </c>
       <c r="E595" t="n">
         <v>60</v>
       </c>
@@ -32257,7 +32425,11 @@
           <t>7699990101000</t>
         </is>
       </c>
-      <c r="D677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - OUTROS SERVICOS - PRINC.</t>
+        </is>
+      </c>
       <c r="E677" t="n">
         <v>60</v>
       </c>
@@ -32673,7 +32845,11 @@
           <t>1611010129000</t>
         </is>
       </c>
-      <c r="D686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - HOSPEDAGEM E ALIMENTACAO</t>
+        </is>
+      </c>
       <c r="E686" t="n">
         <v>60</v>
       </c>
@@ -35157,7 +35333,11 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E738" t="n">
         <v>60</v>
       </c>
@@ -35201,7 +35381,11 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D739" t="inlineStr"/>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E739" t="n">
         <v>77</v>
       </c>
@@ -35871,7 +36055,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E753" t="n">
@@ -36293,7 +36477,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -36341,7 +36525,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -36389,7 +36573,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -37537,7 +37721,11 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D789" t="inlineStr"/>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E789" t="n">
         <v>59</v>
       </c>
@@ -38013,7 +38201,11 @@
           <t>1611030105000</t>
         </is>
       </c>
-      <c r="D799" t="inlineStr"/>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>SERVICOS REG. CERTIF. FISCALIZ. - PRINC. - INSPECAO E FISCALIZACAO</t>
+        </is>
+      </c>
       <c r="E799" t="n">
         <v>60</v>
       </c>
@@ -39113,7 +39305,11 @@
           <t>7729990127000</t>
         </is>
       </c>
-      <c r="D822" t="inlineStr"/>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - OUTRAS TRANSF. ESTADOS DF - PRINC. - REPASSE DO FUNDO ESPECIAL DO MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - FUNEMP</t>
+        </is>
+      </c>
       <c r="E822" t="n">
         <v>60</v>
       </c>
@@ -39639,7 +39835,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E833" t="n">
@@ -40165,7 +40361,11 @@
           <t>1321050101000</t>
         </is>
       </c>
-      <c r="D844" t="inlineStr"/>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO DE APLICACAO FINANCEIRA - TITULOS DE CREDITO</t>
+        </is>
+      </c>
       <c r="E844" t="n">
         <v>60</v>
       </c>
@@ -40353,7 +40553,11 @@
           <t>1911090101003</t>
         </is>
       </c>
-      <c r="D848" t="inlineStr"/>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - DIREITOS DA CIDADANIA</t>
+        </is>
+      </c>
       <c r="E848" t="n">
         <v>60</v>
       </c>
@@ -41685,7 +41889,11 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D876" t="inlineStr"/>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E876" t="n">
         <v>30</v>
       </c>
@@ -42545,7 +42753,11 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D894" t="inlineStr"/>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E894" t="n">
         <v>75</v>
       </c>
@@ -42589,7 +42801,11 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D895" t="inlineStr"/>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E895" t="n">
         <v>75</v>
       </c>
@@ -42829,7 +43045,11 @@
           <t>1999122101000</t>
         </is>
       </c>
-      <c r="D901" t="inlineStr"/>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>ONUS SUCUMBENCIA - PRINC. - HONORARIOS DE ADVOGADOS</t>
+        </is>
+      </c>
       <c r="E901" t="n">
         <v>60</v>
       </c>
@@ -44689,7 +44909,11 @@
           <t>1114501101002</t>
         </is>
       </c>
-      <c r="D942" t="inlineStr"/>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>ICMS - PRINC. - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E942" t="n">
         <v>10</v>
       </c>
@@ -44877,7 +45101,11 @@
           <t>1114501201002</t>
         </is>
       </c>
-      <c r="D946" t="inlineStr"/>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>ICMS - MJM - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E946" t="n">
         <v>10</v>
       </c>
@@ -46985,7 +47213,11 @@
           <t>1121010301002</t>
         </is>
       </c>
-      <c r="D990" t="inlineStr"/>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+        </is>
+      </c>
       <c r="E990" t="n">
         <v>27</v>
       </c>
@@ -47221,7 +47453,11 @@
           <t>1121010401002</t>
         </is>
       </c>
-      <c r="D995" t="inlineStr"/>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+        </is>
+      </c>
       <c r="E995" t="n">
         <v>27</v>
       </c>
@@ -49713,7 +49949,11 @@
           <t>1215521101000</t>
         </is>
       </c>
-      <c r="D1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1047" t="n">
         <v>30</v>
       </c>
@@ -49901,7 +50141,11 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E1051" t="n">
         <v>30</v>
       </c>
@@ -50329,7 +50573,11 @@
           <t>1311020102000</t>
         </is>
       </c>
-      <c r="D1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>CONC. PERM. AUTOR. CESSAO DIR. USO BENS IMOV. PUB. - PRINC. - CESSAO DO DIREITO DE EXPLORACAO DE ESTADIOS - ARENA INDEPENDENCIA</t>
+        </is>
+      </c>
       <c r="E1060" t="n">
         <v>15</v>
       </c>
@@ -50565,7 +50813,11 @@
           <t>1311990101000</t>
         </is>
       </c>
-      <c r="D1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. IMOBILIARIAS - PRINC.</t>
+        </is>
+      </c>
       <c r="E1065" t="n">
         <v>15</v>
       </c>
@@ -50609,7 +50861,11 @@
           <t>1311990201000</t>
         </is>
       </c>
-      <c r="D1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. IMOBILIARIAS - MJM</t>
+        </is>
+      </c>
       <c r="E1066" t="n">
         <v>15</v>
       </c>
@@ -51661,7 +51917,11 @@
           <t>1321020101000</t>
         </is>
       </c>
-      <c r="D1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>REMUNERACAO DEPOSITOS ESPECIAIS - PRINC.</t>
+        </is>
+      </c>
       <c r="E1088" t="n">
         <v>15</v>
       </c>
@@ -51705,7 +51965,11 @@
           <t>1321050102000</t>
         </is>
       </c>
-      <c r="D1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO FINANCEIRO - ATIVO BDMG/CREDIREAL/BEMGE - SANEAMENTO SISTEMA FINANCEIRO</t>
+        </is>
+      </c>
       <c r="E1089" t="n">
         <v>15</v>
       </c>
@@ -52373,7 +52637,11 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
+        </is>
+      </c>
       <c r="E1103" t="n">
         <v>60</v>
       </c>
@@ -53665,7 +53933,11 @@
           <t>1611010135000</t>
         </is>
       </c>
-      <c r="D1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - REGISTRO ELETRONICO DE CONTRATO INTEGRAL</t>
+        </is>
+      </c>
       <c r="E1130" t="n">
         <v>15</v>
       </c>
@@ -54957,7 +55229,11 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
+        </is>
+      </c>
       <c r="E1157" t="n">
         <v>90</v>
       </c>
@@ -55049,7 +55325,11 @@
           <t>1719620101000</t>
         </is>
       </c>
-      <c r="D1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO ESTADO</t>
+        </is>
+      </c>
       <c r="E1159" t="n">
         <v>19</v>
       </c>
@@ -55093,7 +55373,11 @@
           <t>1719620102000</t>
         </is>
       </c>
-      <c r="D1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1160" t="n">
         <v>20</v>
       </c>
@@ -55137,7 +55421,11 @@
           <t>1719620103000</t>
         </is>
       </c>
-      <c r="D1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+        </is>
+      </c>
       <c r="E1161" t="n">
         <v>23</v>
       </c>
@@ -55229,7 +55517,11 @@
           <t>1719990129000</t>
         </is>
       </c>
-      <c r="D1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
+        </is>
+      </c>
       <c r="E1163" t="n">
         <v>15</v>
       </c>
@@ -55273,7 +55565,11 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1164" t="n">
         <v>11</v>
       </c>
@@ -55317,7 +55613,11 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D1165" t="inlineStr"/>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
+        </is>
+      </c>
       <c r="E1165" t="n">
         <v>60</v>
       </c>
@@ -55457,7 +55757,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1168" t="inlineStr"/>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E1168" t="n">
         <v>11</v>
       </c>
@@ -55501,7 +55805,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1169" t="inlineStr"/>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E1169" t="n">
         <v>59</v>
       </c>
@@ -55547,7 +55855,7 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1170" t="n">
@@ -55595,7 +55903,7 @@
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1171" t="n">
@@ -55643,7 +55951,7 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1172" t="n">
@@ -55785,7 +56093,11 @@
           <t>1751500102001</t>
         </is>
       </c>
-      <c r="D1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - LC FEDERAL NO 87/96 - COTA PARTE DO ESTADO</t>
+        </is>
+      </c>
       <c r="E1175" t="n">
         <v>23</v>
       </c>
@@ -56453,7 +56765,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E1189" t="n">
         <v>13</v>
       </c>
@@ -56497,7 +56813,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E1190" t="n">
         <v>23</v>
       </c>
@@ -56637,7 +56957,11 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+        </is>
+      </c>
       <c r="E1193" t="n">
         <v>26</v>
       </c>
@@ -56681,7 +57005,11 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+        </is>
+      </c>
       <c r="E1194" t="n">
         <v>46</v>
       </c>
@@ -57013,7 +57341,11 @@
           <t>1911010104001</t>
         </is>
       </c>
-      <c r="D1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1201" t="n">
         <v>15</v>
       </c>
@@ -57201,7 +57533,11 @@
           <t>1911010109000</t>
         </is>
       </c>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DESMONTE DE VEICULOS</t>
+        </is>
+      </c>
       <c r="E1205" t="n">
         <v>15</v>
       </c>
@@ -57389,7 +57725,11 @@
           <t>1911010304001</t>
         </is>
       </c>
-      <c r="D1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1209" t="n">
         <v>15</v>
       </c>
@@ -57633,7 +57973,11 @@
       <c r="E1214" t="n">
         <v>79</v>
       </c>
-      <c r="F1214" t="inlineStr"/>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G1214" t="n">
         <v>0</v>
       </c>
@@ -57861,7 +58205,11 @@
           <t>1911132101000</t>
         </is>
       </c>
-      <c r="D1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISLACAO ANTICORRUPCAO ACORDOS LENIENCIA - PRINC.</t>
+        </is>
+      </c>
       <c r="E1219" t="n">
         <v>15</v>
       </c>
@@ -58001,7 +58349,11 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>INDENIZACAO SINISTRO - PRINC.</t>
+        </is>
+      </c>
       <c r="E1222" t="n">
         <v>60</v>
       </c>
@@ -58669,7 +59021,11 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D1236" t="inlineStr"/>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1236" t="n">
         <v>25</v>
       </c>
@@ -59673,7 +60029,11 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D1257" t="inlineStr"/>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1257" t="n">
         <v>60</v>
       </c>
@@ -59717,7 +60077,11 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D1258" t="inlineStr"/>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1258" t="n">
         <v>60</v>
       </c>
@@ -60001,7 +60365,11 @@
           <t>1999992101000</t>
         </is>
       </c>
-      <c r="D1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RECURSOS DE DEPOSITOS JUDICIAIS</t>
+        </is>
+      </c>
       <c r="E1264" t="n">
         <v>23</v>
       </c>
@@ -60237,7 +60605,11 @@
           <t>1999992113000</t>
         </is>
       </c>
-      <c r="D1269" t="inlineStr"/>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - CONVERSAO EM RENDA DE VALORES PENHORADOS EM ACOES JUDICIAIS</t>
+        </is>
+      </c>
       <c r="E1269" t="n">
         <v>15</v>
       </c>
@@ -61001,7 +61373,11 @@
           <t>2211020104000</t>
         </is>
       </c>
-      <c r="D1285" t="inlineStr"/>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+        </is>
+      </c>
       <c r="E1285" t="n">
         <v>48</v>
       </c>
@@ -61045,7 +61421,11 @@
           <t>2211020105000</t>
         </is>
       </c>
-      <c r="D1286" t="inlineStr"/>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+        </is>
+      </c>
       <c r="E1286" t="n">
         <v>48</v>
       </c>
@@ -61619,7 +61999,7 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - DEMAIS RECURSOS</t>
         </is>
       </c>
       <c r="E1298" t="n">
@@ -61665,7 +62045,11 @@
           <t>2999990104000</t>
         </is>
       </c>
-      <c r="D1299" t="inlineStr"/>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - ACORDO JUDICIAL DE REPARACAO INTEGRAL E DEFINITIVA</t>
+        </is>
+      </c>
       <c r="E1299" t="n">
         <v>80</v>
       </c>
@@ -61709,7 +62093,11 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E1300" t="n">
         <v>75</v>
       </c>
@@ -61753,7 +62141,11 @@
           <t>7215531103000</t>
         </is>
       </c>
-      <c r="D1301" t="inlineStr"/>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1301" t="n">
         <v>75</v>
       </c>
@@ -61797,7 +62189,11 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D1302" t="inlineStr"/>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E1302" t="n">
         <v>75</v>
       </c>
@@ -61841,7 +62237,11 @@
           <t>7215532103000</t>
         </is>
       </c>
-      <c r="D1303" t="inlineStr"/>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1303" t="n">
         <v>75</v>
       </c>
@@ -61885,7 +62285,11 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D1304" t="inlineStr"/>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E1304" t="n">
         <v>75</v>
       </c>
@@ -61929,7 +62333,11 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D1305" t="inlineStr"/>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E1305" t="n">
         <v>75</v>
       </c>
@@ -62549,7 +62957,11 @@
           <t>9114501101002</t>
         </is>
       </c>
-      <c r="D1318" t="inlineStr"/>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1318" t="n">
         <v>10</v>
       </c>
@@ -62689,7 +63101,11 @@
           <t>9114501201002</t>
         </is>
       </c>
-      <c r="D1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1321" t="n">
         <v>10</v>
       </c>
@@ -63357,7 +63773,11 @@
           <t>9719620102000</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1335" t="n">
         <v>20</v>
       </c>
@@ -63401,7 +63821,11 @@
           <t>9719620103000</t>
         </is>
       </c>
-      <c r="D1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+        </is>
+      </c>
       <c r="E1336" t="n">
         <v>23</v>
       </c>
@@ -63541,7 +63965,11 @@
           <t>9911010104001</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1339" t="n">
         <v>15</v>
       </c>
@@ -63585,7 +64013,11 @@
           <t>9911010304001</t>
         </is>
       </c>
-      <c r="D1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1340" t="n">
         <v>15</v>
       </c>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -6683,11 +6683,11 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>14308</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6731,11 +6731,11 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -6779,11 +6779,11 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6827,11 +6827,11 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>158074</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6875,11 +6875,11 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6923,11 +6923,11 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -6971,11 +6971,11 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1792315</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7019,11 +7019,11 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>104198</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7067,11 +7067,11 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>13640</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7115,11 +7115,11 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7163,11 +7163,11 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>7792</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7259,11 +7259,11 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>12208103</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7355,11 +7355,11 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>546220</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -22279,11 +22279,11 @@
         <v>1057792</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>423706</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -22327,11 +22327,11 @@
         <v>10680</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>4735</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -43027,7 +43027,7 @@
         <v>0</v>
       </c>
       <c r="K900" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="L900" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>0</v>
       </c>
       <c r="K901" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="L901" t="inlineStr">
         <is>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -3187,11 +3187,11 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>241667</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1683340</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3427,11 +3427,11 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3523,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>162989</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3619,11 +3619,11 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>145685</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3715,11 +3715,11 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>29113</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3763,11 +3763,11 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>25345</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3811,11 +3811,11 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>95812</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -27627,11 +27627,11 @@
         <v>91258</v>
       </c>
       <c r="K575" t="n">
-        <v>0</v>
+        <v>113148</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>2000000</v>
+        <v>87226402</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -9339,11 +9339,11 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -15911,11 +15911,11 @@
         <v>10000</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -16007,11 +16007,11 @@
         <v>950</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16055,11 +16055,11 @@
         <v>1233145</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>1821000</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16103,11 +16103,11 @@
         <v>989615</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>2538000</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16247,11 +16247,11 @@
         <v>90000</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16295,11 +16295,11 @@
         <v>402960</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>578000</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -16391,11 +16391,11 @@
         <v>80000</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22091,11 +22091,11 @@
         <v>2534638</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>1575230</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22139,11 +22139,11 @@
         <v>0</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>513300</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22187,11 +22187,11 @@
         <v>6272</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22235,11 +22235,11 @@
         <v>550000</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>292550</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -22283,11 +22283,11 @@
         <v>0</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22379,11 +22379,11 @@
         <v>59090</v>
       </c>
       <c r="K464" t="n">
-        <v>0</v>
+        <v>90472</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -22475,11 +22475,11 @@
         <v>2000</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -24463,7 +24463,7 @@
         <v>4031000</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>4003371</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -28999,11 +28999,11 @@
         <v>299</v>
       </c>
       <c r="K604" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29623,11 +29623,11 @@
         <v>0</v>
       </c>
       <c r="K617" t="n">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -29671,11 +29671,11 @@
         <v>137180</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -32699,11 +32699,11 @@
         <v>60000</v>
       </c>
       <c r="K682" t="n">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -33487,7 +33487,7 @@
         <v>494750</v>
       </c>
       <c r="K699" t="n">
-        <v>5848576</v>
+        <v>6969470</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -33823,11 +33823,11 @@
         <v>1200000</v>
       </c>
       <c r="K706" t="n">
-        <v>0</v>
+        <v>153600000</v>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -40231,11 +40231,11 @@
         <v>1000000</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -40279,11 +40279,11 @@
         <v>21452867</v>
       </c>
       <c r="K842" t="n">
-        <v>0</v>
+        <v>31000000</v>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -41763,11 +41763,11 @@
         <v>468195</v>
       </c>
       <c r="K873" t="n">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -44239,7 +44239,7 @@
         <v>0</v>
       </c>
       <c r="K926" t="n">
-        <v>0</v>
+        <v>5150000</v>
       </c>
       <c r="L926" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>0</v>
       </c>
       <c r="K927" t="n">
-        <v>0</v>
+        <v>515000</v>
       </c>
       <c r="L927" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>0</v>
       </c>
       <c r="K928" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="L928" t="inlineStr">
         <is>
@@ -44359,7 +44359,7 @@
         <v>0</v>
       </c>
       <c r="K929" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="L929" t="inlineStr">
         <is>
@@ -59407,11 +59407,11 @@
         <v>0</v>
       </c>
       <c r="K1244" t="n">
-        <v>3739205</v>
+        <v>1000</v>
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -1133,7 +1133,11 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
+        </is>
+      </c>
       <c r="E15" t="n">
         <v>60</v>
       </c>
@@ -1177,7 +1181,11 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E16" t="n">
         <v>60</v>
       </c>
@@ -1365,7 +1373,11 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
+        </is>
+      </c>
       <c r="E20" t="n">
         <v>60</v>
       </c>
@@ -2205,7 +2217,11 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
+        </is>
+      </c>
       <c r="E38" t="n">
         <v>60</v>
       </c>
@@ -2297,7 +2313,11 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>INDENIZACAO SINISTRO - PRINC.</t>
+        </is>
+      </c>
       <c r="E40" t="n">
         <v>60</v>
       </c>
@@ -4505,7 +4525,11 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
+        </is>
+      </c>
       <c r="E88" t="n">
         <v>90</v>
       </c>
@@ -5221,7 +5245,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E103" t="n">
         <v>13</v>
       </c>
@@ -5265,7 +5293,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E104" t="n">
         <v>23</v>
       </c>
@@ -6509,7 +6541,11 @@
       <c r="E131" t="n">
         <v>79</v>
       </c>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
@@ -8449,7 +8485,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E173" t="n">
         <v>59</v>
       </c>
@@ -8541,7 +8581,11 @@
           <t>2419990113001</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - MINISTERIO DO ESPORTE</t>
+        </is>
+      </c>
       <c r="E175" t="n">
         <v>38</v>
       </c>
@@ -11669,7 +11713,11 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E241" t="n">
         <v>25</v>
       </c>
@@ -13729,7 +13777,11 @@
           <t>1219991206000</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - MJM - PECULIO</t>
+        </is>
+      </c>
       <c r="E284" t="n">
         <v>60</v>
       </c>
@@ -15789,7 +15841,11 @@
           <t>1999992116000</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RENDAS DE LOTERIA CONVENCIONAL</t>
+        </is>
+      </c>
       <c r="E327" t="n">
         <v>60</v>
       </c>
@@ -16309,7 +16365,11 @@
           <t>1741990127999</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>EDUCACAO - OUTROS</t>
+        </is>
+      </c>
       <c r="E338" t="n">
         <v>45</v>
       </c>
@@ -17581,7 +17641,11 @@
           <t>1611010228000</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - MJM - CONSULTORIA, ASSISTENCIA TECNICA E ANALISE DE PROJETOS</t>
+        </is>
+      </c>
       <c r="E365" t="n">
         <v>60</v>
       </c>
@@ -17777,7 +17841,11 @@
       <c r="E369" t="n">
         <v>79</v>
       </c>
-      <c r="F369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
@@ -18941,7 +19009,11 @@
           <t>1349010301000</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+        </is>
+      </c>
       <c r="E394" t="n">
         <v>61</v>
       </c>
@@ -18985,7 +19057,11 @@
           <t>1349010401000</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+        </is>
+      </c>
       <c r="E395" t="n">
         <v>61</v>
       </c>
@@ -19277,7 +19353,11 @@
       <c r="E401" t="n">
         <v>79</v>
       </c>
-      <c r="F401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G401" t="n">
         <v>0</v>
       </c>
@@ -19649,7 +19729,11 @@
           <t>1215521102000</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E409" t="n">
         <v>50</v>
       </c>
@@ -19693,7 +19777,11 @@
           <t>1215521103000</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E410" t="n">
         <v>50</v>
       </c>
@@ -19737,7 +19825,11 @@
           <t>1215522102000</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E411" t="n">
         <v>50</v>
       </c>
@@ -19781,7 +19873,11 @@
           <t>1215522103000</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E412" t="n">
         <v>50</v>
       </c>
@@ -19921,7 +20017,11 @@
           <t>1219991103003</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - ATIVO</t>
+        </is>
+      </c>
       <c r="E415" t="n">
         <v>50</v>
       </c>
@@ -19965,7 +20065,11 @@
           <t>1219991103004</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - INATIVO</t>
+        </is>
+      </c>
       <c r="E416" t="n">
         <v>50</v>
       </c>
@@ -20009,7 +20113,11 @@
           <t>1219991103005</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E417" t="n">
         <v>50</v>
       </c>
@@ -20053,7 +20161,11 @@
           <t>1219991103006</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E418" t="n">
         <v>50</v>
       </c>
@@ -20769,7 +20881,11 @@
           <t>7215531101000</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E433" t="n">
         <v>49</v>
       </c>
@@ -20813,7 +20929,11 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr"/>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E434" t="n">
         <v>49</v>
       </c>
@@ -20857,7 +20977,11 @@
           <t>7215532101000</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr"/>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+        </is>
+      </c>
       <c r="E435" t="n">
         <v>49</v>
       </c>
@@ -20901,7 +21025,11 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E436" t="n">
         <v>49</v>
       </c>
@@ -21041,7 +21169,11 @@
           <t>7219991103053</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - ATIVO</t>
+        </is>
+      </c>
       <c r="E439" t="n">
         <v>49</v>
       </c>
@@ -21085,7 +21217,11 @@
           <t>7219991103054</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - INATIVO</t>
+        </is>
+      </c>
       <c r="E440" t="n">
         <v>49</v>
       </c>
@@ -21129,7 +21265,11 @@
           <t>7219991103055</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E441" t="n">
         <v>49</v>
       </c>
@@ -21173,7 +21313,11 @@
           <t>7219991103056</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E442" t="n">
         <v>49</v>
       </c>
@@ -22209,7 +22353,11 @@
           <t>1761990139999</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>CULTURA - OUTROS</t>
+        </is>
+      </c>
       <c r="E464" t="n">
         <v>45</v>
       </c>
@@ -23437,7 +23585,11 @@
       <c r="E490" t="n">
         <v>79</v>
       </c>
-      <c r="F490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G490" t="n">
         <v>0</v>
       </c>
@@ -23665,7 +23817,11 @@
           <t>1922991199000</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINCIPAL - DEMAIS</t>
+        </is>
+      </c>
       <c r="E495" t="n">
         <v>72</v>
       </c>
@@ -23757,7 +23913,11 @@
           <t>7121040104000</t>
         </is>
       </c>
-      <c r="D497" t="inlineStr"/>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+        </is>
+      </c>
       <c r="E497" t="n">
         <v>91</v>
       </c>
@@ -24517,7 +24677,11 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
+        </is>
+      </c>
       <c r="E513" t="n">
         <v>60</v>
       </c>
@@ -26077,7 +26241,11 @@
           <t>1923990103000</t>
         </is>
       </c>
-      <c r="D546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>OUTROS RESSARCIMENTOS - PRINC. - FORMACAO ACADEMICA NA AREA DE SAUDE</t>
+        </is>
+      </c>
       <c r="E546" t="n">
         <v>60</v>
       </c>
@@ -28661,7 +28829,11 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
+        </is>
+      </c>
       <c r="E601" t="n">
         <v>60</v>
       </c>
@@ -28945,7 +29117,11 @@
           <t>1631530201000</t>
         </is>
       </c>
-      <c r="D607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>SERVICOS AMBULATORIAIS - MJM</t>
+        </is>
+      </c>
       <c r="E607" t="n">
         <v>60</v>
       </c>
@@ -32865,7 +33041,11 @@
           <t>7699990101000</t>
         </is>
       </c>
-      <c r="D690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - OUTROS SERVICOS - PRINC.</t>
+        </is>
+      </c>
       <c r="E690" t="n">
         <v>60</v>
       </c>
@@ -33281,7 +33461,11 @@
           <t>1611010129000</t>
         </is>
       </c>
-      <c r="D699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - HOSPEDAGEM E ALIMENTACAO</t>
+        </is>
+      </c>
       <c r="E699" t="n">
         <v>60</v>
       </c>
@@ -35765,7 +35949,11 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D751" t="inlineStr"/>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E751" t="n">
         <v>60</v>
       </c>
@@ -35809,7 +35997,11 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr"/>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E752" t="n">
         <v>77</v>
       </c>
@@ -36479,7 +36671,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E766" t="n">
@@ -36665,7 +36857,11 @@
           <t>2491990114000</t>
         </is>
       </c>
-      <c r="D770" t="inlineStr"/>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+        </is>
+      </c>
       <c r="E770" t="n">
         <v>45</v>
       </c>
@@ -36989,7 +37185,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -37037,7 +37233,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -37085,7 +37281,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -38377,7 +38573,11 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D807" t="inlineStr"/>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E807" t="n">
         <v>59</v>
       </c>
@@ -38805,7 +39005,11 @@
           <t>1331011101002</t>
         </is>
       </c>
-      <c r="D816" t="inlineStr"/>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>DELEGACAO PARA A PRESTACAO DOS SERVICOS DE TRANSPORTE RODOVIARIO - PRINCIPAL - FUNDO ESTADUAL DE DESENVOLVIMENTO DE TRANSPORTES - INTERMUNICIPAL</t>
+        </is>
+      </c>
       <c r="E816" t="n">
         <v>60</v>
       </c>
@@ -38897,7 +39101,11 @@
           <t>1611030105000</t>
         </is>
       </c>
-      <c r="D818" t="inlineStr"/>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>SERVICOS REG. CERTIF. FISCALIZ. - PRINC. - INSPECAO E FISCALIZACAO</t>
+        </is>
+      </c>
       <c r="E818" t="n">
         <v>60</v>
       </c>
@@ -39997,7 +40205,11 @@
           <t>7729990127000</t>
         </is>
       </c>
-      <c r="D841" t="inlineStr"/>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - OUTRAS TRANSF. ESTADOS DF - PRINC. - REPASSE DO FUNDO ESPECIAL DO MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - FUNEMP</t>
+        </is>
+      </c>
       <c r="E841" t="n">
         <v>60</v>
       </c>
@@ -40523,7 +40735,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E852" t="n">
@@ -40661,7 +40873,11 @@
           <t>2491990114000</t>
         </is>
       </c>
-      <c r="D855" t="inlineStr"/>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+        </is>
+      </c>
       <c r="E855" t="n">
         <v>45</v>
       </c>
@@ -41185,7 +41401,11 @@
           <t>1321050101000</t>
         </is>
       </c>
-      <c r="D866" t="inlineStr"/>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO DE APLICACAO FINANCEIRA - TITULOS DE CREDITO</t>
+        </is>
+      </c>
       <c r="E866" t="n">
         <v>60</v>
       </c>
@@ -41373,7 +41593,11 @@
           <t>1911090101003</t>
         </is>
       </c>
-      <c r="D870" t="inlineStr"/>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - DIREITOS DA CIDADANIA</t>
+        </is>
+      </c>
       <c r="E870" t="n">
         <v>60</v>
       </c>
@@ -42801,7 +43025,11 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D900" t="inlineStr"/>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E900" t="n">
         <v>30</v>
       </c>
@@ -43661,7 +43889,11 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D918" t="inlineStr"/>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E918" t="n">
         <v>75</v>
       </c>
@@ -43705,7 +43937,11 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D919" t="inlineStr"/>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E919" t="n">
         <v>75</v>
       </c>
@@ -43985,7 +44221,11 @@
           <t>1999122101000</t>
         </is>
       </c>
-      <c r="D926" t="inlineStr"/>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>ONUS SUCUMBENCIA - PRINC. - HONORARIOS DE ADVOGADOS</t>
+        </is>
+      </c>
       <c r="E926" t="n">
         <v>60</v>
       </c>
@@ -45845,7 +46085,11 @@
           <t>1114501101002</t>
         </is>
       </c>
-      <c r="D967" t="inlineStr"/>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>ICMS - PRINC. - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E967" t="n">
         <v>10</v>
       </c>
@@ -46033,7 +46277,11 @@
           <t>1114501201002</t>
         </is>
       </c>
-      <c r="D971" t="inlineStr"/>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>ICMS - MJM - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E971" t="n">
         <v>10</v>
       </c>
@@ -48141,7 +48389,11 @@
           <t>1121010301002</t>
         </is>
       </c>
-      <c r="D1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+        </is>
+      </c>
       <c r="E1015" t="n">
         <v>27</v>
       </c>
@@ -48377,7 +48629,11 @@
           <t>1121010401002</t>
         </is>
       </c>
-      <c r="D1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+        </is>
+      </c>
       <c r="E1020" t="n">
         <v>27</v>
       </c>
@@ -50869,7 +51125,11 @@
           <t>1215521101000</t>
         </is>
       </c>
-      <c r="D1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1072" t="n">
         <v>30</v>
       </c>
@@ -51057,7 +51317,11 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E1076" t="n">
         <v>30</v>
       </c>
@@ -51485,7 +51749,11 @@
           <t>1311020102000</t>
         </is>
       </c>
-      <c r="D1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>CONC. PERM. AUTOR. CESSAO DIR. USO BENS IMOV. PUB. - PRINC. - CESSAO DO DIREITO DE EXPLORACAO DE ESTADIOS - ARENA INDEPENDENCIA</t>
+        </is>
+      </c>
       <c r="E1085" t="n">
         <v>15</v>
       </c>
@@ -51721,7 +51989,11 @@
           <t>1311990101000</t>
         </is>
       </c>
-      <c r="D1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. IMOBILIARIAS - PRINC.</t>
+        </is>
+      </c>
       <c r="E1090" t="n">
         <v>15</v>
       </c>
@@ -51765,7 +52037,11 @@
           <t>1311990201000</t>
         </is>
       </c>
-      <c r="D1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. IMOBILIARIAS - MJM</t>
+        </is>
+      </c>
       <c r="E1091" t="n">
         <v>15</v>
       </c>
@@ -52817,7 +53093,11 @@
           <t>1321020101000</t>
         </is>
       </c>
-      <c r="D1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>REMUNERACAO DEPOSITOS ESPECIAIS - PRINC.</t>
+        </is>
+      </c>
       <c r="E1113" t="n">
         <v>15</v>
       </c>
@@ -52861,7 +53141,11 @@
           <t>1321050102000</t>
         </is>
       </c>
-      <c r="D1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO FINANCEIRO - ATIVO BDMG/CREDIREAL/BEMGE - SANEAMENTO SISTEMA FINANCEIRO</t>
+        </is>
+      </c>
       <c r="E1114" t="n">
         <v>15</v>
       </c>
@@ -53577,7 +53861,11 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
+        </is>
+      </c>
       <c r="E1129" t="n">
         <v>60</v>
       </c>
@@ -54869,7 +55157,11 @@
           <t>1611010135000</t>
         </is>
       </c>
-      <c r="D1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - REGISTRO ELETRONICO DE CONTRATO INTEGRAL</t>
+        </is>
+      </c>
       <c r="E1156" t="n">
         <v>15</v>
       </c>
@@ -56161,7 +56453,11 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
+        </is>
+      </c>
       <c r="E1183" t="n">
         <v>90</v>
       </c>
@@ -56253,7 +56549,11 @@
           <t>1719620101000</t>
         </is>
       </c>
-      <c r="D1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO ESTADO</t>
+        </is>
+      </c>
       <c r="E1185" t="n">
         <v>19</v>
       </c>
@@ -56297,7 +56597,11 @@
           <t>1719620102000</t>
         </is>
       </c>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1186" t="n">
         <v>20</v>
       </c>
@@ -56341,7 +56645,11 @@
           <t>1719620103000</t>
         </is>
       </c>
-      <c r="D1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+        </is>
+      </c>
       <c r="E1187" t="n">
         <v>23</v>
       </c>
@@ -56433,7 +56741,11 @@
           <t>1719990129000</t>
         </is>
       </c>
-      <c r="D1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
+        </is>
+      </c>
       <c r="E1189" t="n">
         <v>15</v>
       </c>
@@ -56477,7 +56789,11 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1190" t="n">
         <v>11</v>
       </c>
@@ -56521,7 +56837,11 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
+        </is>
+      </c>
       <c r="E1191" t="n">
         <v>60</v>
       </c>
@@ -56661,7 +56981,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E1194" t="n">
         <v>11</v>
       </c>
@@ -56705,7 +57029,11 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>DESPORTO LAZER - OUTROS</t>
+        </is>
+      </c>
       <c r="E1195" t="n">
         <v>59</v>
       </c>
@@ -56751,7 +57079,7 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1196" t="n">
@@ -56799,7 +57127,7 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1197" t="n">
@@ -56847,7 +57175,7 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1198" t="n">
@@ -56989,7 +57317,11 @@
           <t>1751500102001</t>
         </is>
       </c>
-      <c r="D1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - LC FEDERAL NO 87/96 - COTA PARTE DO ESTADO</t>
+        </is>
+      </c>
       <c r="E1201" t="n">
         <v>23</v>
       </c>
@@ -57657,7 +57989,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1215" t="inlineStr"/>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E1215" t="n">
         <v>13</v>
       </c>
@@ -57701,7 +58037,11 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1216" t="inlineStr"/>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
+        </is>
+      </c>
       <c r="E1216" t="n">
         <v>23</v>
       </c>
@@ -57841,7 +58181,11 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+        </is>
+      </c>
       <c r="E1219" t="n">
         <v>26</v>
       </c>
@@ -57885,7 +58229,11 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1220" t="inlineStr"/>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+        </is>
+      </c>
       <c r="E1220" t="n">
         <v>46</v>
       </c>
@@ -58217,7 +58565,11 @@
           <t>1911010104001</t>
         </is>
       </c>
-      <c r="D1227" t="inlineStr"/>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1227" t="n">
         <v>15</v>
       </c>
@@ -58405,7 +58757,11 @@
           <t>1911010109000</t>
         </is>
       </c>
-      <c r="D1231" t="inlineStr"/>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DESMONTE DE VEICULOS</t>
+        </is>
+      </c>
       <c r="E1231" t="n">
         <v>15</v>
       </c>
@@ -58593,7 +58949,11 @@
           <t>1911010304001</t>
         </is>
       </c>
-      <c r="D1235" t="inlineStr"/>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1235" t="n">
         <v>15</v>
       </c>
@@ -58837,7 +59197,11 @@
       <c r="E1240" t="n">
         <v>79</v>
       </c>
-      <c r="F1240" t="inlineStr"/>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="G1240" t="n">
         <v>0</v>
       </c>
@@ -59065,7 +59429,11 @@
           <t>1911132101000</t>
         </is>
       </c>
-      <c r="D1245" t="inlineStr"/>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>MULTAS LEGISLACAO ANTICORRUPCAO ACORDOS LENIENCIA - PRINC.</t>
+        </is>
+      </c>
       <c r="E1245" t="n">
         <v>15</v>
       </c>
@@ -59205,7 +59573,11 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D1248" t="inlineStr"/>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>INDENIZACAO SINISTRO - PRINC.</t>
+        </is>
+      </c>
       <c r="E1248" t="n">
         <v>60</v>
       </c>
@@ -59873,7 +60245,11 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D1262" t="inlineStr"/>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1262" t="n">
         <v>25</v>
       </c>
@@ -60877,7 +61253,11 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1283" t="n">
         <v>60</v>
       </c>
@@ -60921,7 +61301,11 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
+        </is>
+      </c>
       <c r="E1284" t="n">
         <v>60</v>
       </c>
@@ -61205,7 +61589,11 @@
           <t>1999992101000</t>
         </is>
       </c>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RECURSOS DE DEPOSITOS JUDICIAIS</t>
+        </is>
+      </c>
       <c r="E1290" t="n">
         <v>23</v>
       </c>
@@ -61441,7 +61829,11 @@
           <t>1999992113000</t>
         </is>
       </c>
-      <c r="D1295" t="inlineStr"/>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - CONVERSAO EM RENDA DE VALORES PENHORADOS EM ACOES JUDICIAIS</t>
+        </is>
+      </c>
       <c r="E1295" t="n">
         <v>15</v>
       </c>
@@ -62205,7 +62597,11 @@
           <t>2211020104000</t>
         </is>
       </c>
-      <c r="D1311" t="inlineStr"/>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+        </is>
+      </c>
       <c r="E1311" t="n">
         <v>48</v>
       </c>
@@ -62249,7 +62645,11 @@
           <t>2211020105000</t>
         </is>
       </c>
-      <c r="D1312" t="inlineStr"/>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+        </is>
+      </c>
       <c r="E1312" t="n">
         <v>48</v>
       </c>
@@ -62823,7 +63223,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - DEMAIS RECURSOS</t>
         </is>
       </c>
       <c r="E1324" t="n">
@@ -62869,7 +63269,11 @@
           <t>2999990104000</t>
         </is>
       </c>
-      <c r="D1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - ACORDO JUDICIAL DE REPARACAO INTEGRAL E DEFINITIVA</t>
+        </is>
+      </c>
       <c r="E1325" t="n">
         <v>80</v>
       </c>
@@ -62913,7 +63317,11 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E1326" t="n">
         <v>75</v>
       </c>
@@ -62957,7 +63365,11 @@
           <t>7215531103000</t>
         </is>
       </c>
-      <c r="D1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1327" t="n">
         <v>75</v>
       </c>
@@ -63001,7 +63413,11 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
+        </is>
+      </c>
       <c r="E1328" t="n">
         <v>75</v>
       </c>
@@ -63045,7 +63461,11 @@
           <t>7215532103000</t>
         </is>
       </c>
-      <c r="D1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - APOSENTADORIA</t>
+        </is>
+      </c>
       <c r="E1329" t="n">
         <v>75</v>
       </c>
@@ -63089,7 +63509,11 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
+        </is>
+      </c>
       <c r="E1330" t="n">
         <v>75</v>
       </c>
@@ -63133,7 +63557,11 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
+        </is>
+      </c>
       <c r="E1331" t="n">
         <v>75</v>
       </c>
@@ -63753,7 +64181,11 @@
           <t>9114501101002</t>
         </is>
       </c>
-      <c r="D1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1344" t="n">
         <v>10</v>
       </c>
@@ -63893,7 +64325,11 @@
           <t>9114501201002</t>
         </is>
       </c>
-      <c r="D1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1347" t="n">
         <v>10</v>
       </c>
@@ -64561,7 +64997,11 @@
           <t>9719620102000</t>
         </is>
       </c>
-      <c r="D1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+        </is>
+      </c>
       <c r="E1361" t="n">
         <v>20</v>
       </c>
@@ -64605,7 +65045,11 @@
           <t>9719620103000</t>
         </is>
       </c>
-      <c r="D1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+        </is>
+      </c>
       <c r="E1362" t="n">
         <v>23</v>
       </c>
@@ -64745,7 +65189,11 @@
           <t>9911010104001</t>
         </is>
       </c>
-      <c r="D1365" t="inlineStr"/>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1365" t="n">
         <v>15</v>
       </c>
@@ -64789,7 +65237,11 @@
           <t>9911010304001</t>
         </is>
       </c>
-      <c r="D1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
+        </is>
+      </c>
       <c r="E1366" t="n">
         <v>15</v>
       </c>

--- a/data/receita_analise.xlsx
+++ b/data/receita_analise.xlsx
@@ -1133,11 +1133,7 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>60</v>
       </c>
@@ -1181,11 +1177,7 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>60</v>
       </c>
@@ -1373,11 +1365,7 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>60</v>
       </c>
@@ -2217,11 +2205,7 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>60</v>
       </c>
@@ -2313,11 +2297,7 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>INDENIZACAO SINISTRO - PRINC.</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>60</v>
       </c>
@@ -3419,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1683340</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1683340</v>
+        <v>0</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3611,11 +3591,11 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3659,11 +3639,11 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3851,11 +3831,11 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -4139,11 +4119,11 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>11664</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4525,11 +4505,7 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>90</v>
       </c>
@@ -5245,11 +5221,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
         <v>13</v>
       </c>
@@ -5293,11 +5265,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
         <v>23</v>
       </c>
@@ -6541,11 +6509,7 @@
       <c r="E131" t="n">
         <v>79</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
         <v>0</v>
       </c>
@@ -8485,11 +8449,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
         <v>59</v>
       </c>
@@ -8581,11 +8541,7 @@
           <t>2419990113001</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - MINISTERIO DO ESPORTE</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
         <v>38</v>
       </c>
@@ -11713,11 +11669,7 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
         <v>25</v>
       </c>
@@ -13777,11 +13729,7 @@
           <t>1219991206000</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - MJM - PECULIO</t>
-        </is>
-      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
         <v>60</v>
       </c>
@@ -15841,11 +15789,7 @@
           <t>1999992116000</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RENDAS DE LOTERIA CONVENCIONAL</t>
-        </is>
-      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="E327" t="n">
         <v>60</v>
       </c>
@@ -16365,11 +16309,7 @@
           <t>1741990127999</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>EDUCACAO - OUTROS</t>
-        </is>
-      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="n">
         <v>45</v>
       </c>
@@ -17641,11 +17581,7 @@
           <t>1611010228000</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - MJM - CONSULTORIA, ASSISTENCIA TECNICA E ANALISE DE PROJETOS</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="n">
         <v>60</v>
       </c>
@@ -17841,11 +17777,7 @@
       <c r="E369" t="n">
         <v>79</v>
       </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
         <v>0</v>
       </c>
@@ -19009,11 +18941,7 @@
           <t>1349010301000</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
-        </is>
-      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
         <v>61</v>
       </c>
@@ -19057,11 +18985,7 @@
           <t>1349010401000</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
-        </is>
-      </c>
+      <c r="D395" t="inlineStr"/>
       <c r="E395" t="n">
         <v>61</v>
       </c>
@@ -19353,11 +19277,7 @@
       <c r="E401" t="n">
         <v>79</v>
       </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F401" t="inlineStr"/>
       <c r="G401" t="n">
         <v>0</v>
       </c>
@@ -19729,11 +19649,7 @@
           <t>1215521102000</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
         <v>50</v>
       </c>
@@ -19777,11 +19693,7 @@
           <t>1215521103000</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="E410" t="n">
         <v>50</v>
       </c>
@@ -19825,11 +19737,7 @@
           <t>1215522102000</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="E411" t="n">
         <v>50</v>
       </c>
@@ -19873,11 +19781,7 @@
           <t>1215522103000</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D412" t="inlineStr"/>
       <c r="E412" t="n">
         <v>50</v>
       </c>
@@ -20017,11 +19921,7 @@
           <t>1219991103003</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - ATIVO</t>
-        </is>
-      </c>
+      <c r="D415" t="inlineStr"/>
       <c r="E415" t="n">
         <v>50</v>
       </c>
@@ -20065,11 +19965,7 @@
           <t>1219991103004</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A SAUDE - INATIVO</t>
-        </is>
-      </c>
+      <c r="D416" t="inlineStr"/>
       <c r="E416" t="n">
         <v>50</v>
       </c>
@@ -20113,11 +20009,7 @@
           <t>1219991103005</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D417" t="inlineStr"/>
       <c r="E417" t="n">
         <v>50</v>
       </c>
@@ -20161,11 +20053,7 @@
           <t>1219991103006</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. MILITAR PARA A PREVIDENCIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D418" t="inlineStr"/>
       <c r="E418" t="n">
         <v>50</v>
       </c>
@@ -20881,11 +20769,7 @@
           <t>7215531101000</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D433" t="inlineStr"/>
       <c r="E433" t="n">
         <v>49</v>
       </c>
@@ -20929,11 +20813,7 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D434" t="inlineStr"/>
       <c r="E434" t="n">
         <v>49</v>
       </c>
@@ -20977,11 +20857,7 @@
           <t>7215532101000</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
-        </is>
-      </c>
+      <c r="D435" t="inlineStr"/>
       <c r="E435" t="n">
         <v>49</v>
       </c>
@@ -21025,11 +20901,7 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D436" t="inlineStr"/>
       <c r="E436" t="n">
         <v>49</v>
       </c>
@@ -21169,11 +21041,7 @@
           <t>7219991103053</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - ATIVO</t>
-        </is>
-      </c>
+      <c r="D439" t="inlineStr"/>
       <c r="E439" t="n">
         <v>49</v>
       </c>
@@ -21217,11 +21085,7 @@
           <t>7219991103054</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A SAUDE - INATIVO</t>
-        </is>
-      </c>
+      <c r="D440" t="inlineStr"/>
       <c r="E440" t="n">
         <v>49</v>
       </c>
@@ -21265,11 +21129,7 @@
           <t>7219991103055</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D441" t="inlineStr"/>
       <c r="E441" t="n">
         <v>49</v>
       </c>
@@ -21313,11 +21173,7 @@
           <t>7219991103056</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL MILITAR PARA A PREVIDENCIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="E442" t="n">
         <v>49</v>
       </c>
@@ -22353,11 +22209,7 @@
           <t>1761990139999</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>CULTURA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D464" t="inlineStr"/>
       <c r="E464" t="n">
         <v>45</v>
       </c>
@@ -23585,11 +23437,7 @@
       <c r="E490" t="n">
         <v>79</v>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F490" t="inlineStr"/>
       <c r="G490" t="n">
         <v>0</v>
       </c>
@@ -23817,11 +23665,7 @@
           <t>1922991199000</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - PRINCIPAL - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="E495" t="n">
         <v>72</v>
       </c>
@@ -23913,11 +23757,7 @@
           <t>7121040104000</t>
         </is>
       </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
-        </is>
-      </c>
+      <c r="D497" t="inlineStr"/>
       <c r="E497" t="n">
         <v>91</v>
       </c>
@@ -24677,11 +24517,7 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D513" t="inlineStr"/>
       <c r="E513" t="n">
         <v>60</v>
       </c>
@@ -26241,11 +26077,7 @@
           <t>1923990103000</t>
         </is>
       </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>OUTROS RESSARCIMENTOS - PRINC. - FORMACAO ACADEMICA NA AREA DE SAUDE</t>
-        </is>
-      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="E546" t="n">
         <v>60</v>
       </c>
@@ -28829,11 +28661,7 @@
           <t>1351010101000</t>
         </is>
       </c>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>OUTORGA DIR. USO EXPLORACAO CRIACAO PROTEGIDA - INSTITUICAO CIENTIFICA TECNOLOGICA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D601" t="inlineStr"/>
       <c r="E601" t="n">
         <v>60</v>
       </c>
@@ -29117,11 +28945,7 @@
           <t>1631530201000</t>
         </is>
       </c>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>SERVICOS AMBULATORIAIS - MJM</t>
-        </is>
-      </c>
+      <c r="D607" t="inlineStr"/>
       <c r="E607" t="n">
         <v>60</v>
       </c>
@@ -30637,11 +30461,7 @@
           <t>1219991101001</t>
         </is>
       </c>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
-        </is>
-      </c>
+      <c r="D639" t="inlineStr"/>
       <c r="E639" t="n">
         <v>60</v>
       </c>
@@ -33089,11 +32909,7 @@
           <t>7699990101000</t>
         </is>
       </c>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - OUTROS SERVICOS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D691" t="inlineStr"/>
       <c r="E691" t="n">
         <v>60</v>
       </c>
@@ -33509,11 +33325,7 @@
           <t>1611010129000</t>
         </is>
       </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - HOSPEDAGEM E ALIMENTACAO</t>
-        </is>
-      </c>
+      <c r="D700" t="inlineStr"/>
       <c r="E700" t="n">
         <v>60</v>
       </c>
@@ -35997,11 +35809,7 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D752" t="inlineStr"/>
       <c r="E752" t="n">
         <v>60</v>
       </c>
@@ -36045,11 +35853,7 @@
           <t>1911090499000</t>
         </is>
       </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D753" t="inlineStr"/>
       <c r="E753" t="n">
         <v>77</v>
       </c>
@@ -36719,7 +36523,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E767" t="n">
@@ -36905,11 +36709,7 @@
           <t>2491990114000</t>
         </is>
       </c>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
-        </is>
-      </c>
+      <c r="D771" t="inlineStr"/>
       <c r="E771" t="n">
         <v>45</v>
       </c>
@@ -37233,7 +37033,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -37281,7 +37081,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -37329,7 +37129,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -38477,11 +38277,7 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D805" t="inlineStr"/>
       <c r="E805" t="n">
         <v>59</v>
       </c>
@@ -38909,11 +38705,7 @@
           <t>1331011101002</t>
         </is>
       </c>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>DELEGACAO PARA A PRESTACAO DOS SERVICOS DE TRANSPORTE RODOVIARIO - PRINCIPAL - FUNDO ESTADUAL DE DESENVOLVIMENTO DE TRANSPORTES - INTERMUNICIPAL</t>
-        </is>
-      </c>
+      <c r="D814" t="inlineStr"/>
       <c r="E814" t="n">
         <v>60</v>
       </c>
@@ -39005,11 +38797,7 @@
           <t>1611030105000</t>
         </is>
       </c>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>SERVICOS REG. CERTIF. FISCALIZ. - PRINC. - INSPECAO E FISCALIZACAO</t>
-        </is>
-      </c>
+      <c r="D816" t="inlineStr"/>
       <c r="E816" t="n">
         <v>60</v>
       </c>
@@ -40109,11 +39897,7 @@
           <t>7729990127000</t>
         </is>
       </c>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - OUTRAS TRANSF. ESTADOS DF - PRINC. - REPASSE DO FUNDO ESPECIAL DO MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - FUNEMP</t>
-        </is>
-      </c>
+      <c r="D839" t="inlineStr"/>
       <c r="E839" t="n">
         <v>60</v>
       </c>
@@ -40639,7 +40423,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E850" t="n">
@@ -40777,11 +40561,7 @@
           <t>2491990114000</t>
         </is>
       </c>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
-        </is>
-      </c>
+      <c r="D853" t="inlineStr"/>
       <c r="E853" t="n">
         <v>45</v>
       </c>
@@ -41305,11 +41085,7 @@
           <t>1321050101000</t>
         </is>
       </c>
-      <c r="D864" t="inlineStr">
-        <is>
-          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO DE APLICACAO FINANCEIRA - TITULOS DE CREDITO</t>
-        </is>
-      </c>
+      <c r="D864" t="inlineStr"/>
       <c r="E864" t="n">
         <v>60</v>
       </c>
@@ -41497,11 +41273,7 @@
           <t>1911090101003</t>
         </is>
       </c>
-      <c r="D868" t="inlineStr">
-        <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - DIREITOS DA CIDADANIA</t>
-        </is>
-      </c>
+      <c r="D868" t="inlineStr"/>
       <c r="E868" t="n">
         <v>60</v>
       </c>
@@ -42929,11 +42701,7 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D898" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D898" t="inlineStr"/>
       <c r="E898" t="n">
         <v>30</v>
       </c>
@@ -43793,11 +43561,7 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D916" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D916" t="inlineStr"/>
       <c r="E916" t="n">
         <v>75</v>
       </c>
@@ -43841,11 +43605,7 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D917" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D917" t="inlineStr"/>
       <c r="E917" t="n">
         <v>75</v>
       </c>
@@ -44125,11 +43885,7 @@
           <t>1999122101000</t>
         </is>
       </c>
-      <c r="D924" t="inlineStr">
-        <is>
-          <t>ONUS SUCUMBENCIA - PRINC. - HONORARIOS DE ADVOGADOS</t>
-        </is>
-      </c>
+      <c r="D924" t="inlineStr"/>
       <c r="E924" t="n">
         <v>60</v>
       </c>
@@ -45989,11 +45745,7 @@
           <t>1114501101002</t>
         </is>
       </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>ICMS - PRINC. - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D965" t="inlineStr"/>
       <c r="E965" t="n">
         <v>10</v>
       </c>
@@ -46181,11 +45933,7 @@
           <t>1114501201002</t>
         </is>
       </c>
-      <c r="D969" t="inlineStr">
-        <is>
-          <t>ICMS - MJM - COTA PARTE ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D969" t="inlineStr"/>
       <c r="E969" t="n">
         <v>10</v>
       </c>
@@ -48293,11 +48041,7 @@
           <t>1121010301002</t>
         </is>
       </c>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
-        </is>
-      </c>
+      <c r="D1013" t="inlineStr"/>
       <c r="E1013" t="n">
         <v>27</v>
       </c>
@@ -48533,11 +48277,7 @@
           <t>1121010401002</t>
         </is>
       </c>
-      <c r="D1018" t="inlineStr">
-        <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
-        </is>
-      </c>
+      <c r="D1018" t="inlineStr"/>
       <c r="E1018" t="n">
         <v>27</v>
       </c>
@@ -51029,11 +50769,7 @@
           <t>1215521101000</t>
         </is>
       </c>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="n">
         <v>30</v>
       </c>
@@ -51221,11 +50957,7 @@
           <t>1219991110001</t>
         </is>
       </c>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D1074" t="inlineStr"/>
       <c r="E1074" t="n">
         <v>30</v>
       </c>
@@ -51653,11 +51385,7 @@
           <t>1311020102000</t>
         </is>
       </c>
-      <c r="D1083" t="inlineStr">
-        <is>
-          <t>CONC. PERM. AUTOR. CESSAO DIR. USO BENS IMOV. PUB. - PRINC. - CESSAO DO DIREITO DE EXPLORACAO DE ESTADIOS - ARENA INDEPENDENCIA</t>
-        </is>
-      </c>
+      <c r="D1083" t="inlineStr"/>
       <c r="E1083" t="n">
         <v>15</v>
       </c>
@@ -51893,11 +51621,7 @@
           <t>1311990101000</t>
         </is>
       </c>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. IMOBILIARIAS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1088" t="inlineStr"/>
       <c r="E1088" t="n">
         <v>15</v>
       </c>
@@ -51941,11 +51665,7 @@
           <t>1311990201000</t>
         </is>
       </c>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. IMOBILIARIAS - MJM</t>
-        </is>
-      </c>
+      <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="n">
         <v>15</v>
       </c>
@@ -52997,11 +52717,7 @@
           <t>1321020101000</t>
         </is>
       </c>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS ESPECIAIS - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
       <c r="E1111" t="n">
         <v>15</v>
       </c>
@@ -53045,11 +52761,7 @@
           <t>1321050102000</t>
         </is>
       </c>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>JUROS TITULOS RENDA - PRINC. - RENDIMENTO FINANCEIRO - ATIVO BDMG/CREDIREAL/BEMGE - SANEAMENTO SISTEMA FINANCEIRO</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="n">
         <v>15</v>
       </c>
@@ -53765,11 +53477,7 @@
           <t>1361012101000</t>
         </is>
       </c>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>CESSAO DIR. OPERAC. PAG. - PODER JUDICIARIO - PRINC. - FOLHA DE PESSOAL</t>
-        </is>
-      </c>
+      <c r="D1127" t="inlineStr"/>
       <c r="E1127" t="n">
         <v>60</v>
       </c>
@@ -55061,11 +54769,7 @@
           <t>1611010135000</t>
         </is>
       </c>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - REGISTRO ELETRONICO DE CONTRATO INTEGRAL</t>
-        </is>
-      </c>
+      <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="n">
         <v>15</v>
       </c>
@@ -56357,11 +56061,7 @@
           <t>1715520101000</t>
         </is>
       </c>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPLEM. UNIAO FUNDEB - VAAR - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="n">
         <v>90</v>
       </c>
@@ -56453,11 +56153,7 @@
           <t>1719620101000</t>
         </is>
       </c>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
-      </c>
+      <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="n">
         <v>19</v>
       </c>
@@ -56501,11 +56197,7 @@
           <t>1719620102000</t>
         </is>
       </c>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="n">
         <v>20</v>
       </c>
@@ -56549,11 +56241,7 @@
           <t>1719620103000</t>
         </is>
       </c>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
-        </is>
-      </c>
+      <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="n">
         <v>23</v>
       </c>
@@ -56645,11 +56333,7 @@
           <t>1719990129000</t>
         </is>
       </c>
-      <c r="D1187" t="inlineStr">
-        <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
-        </is>
-      </c>
+      <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="n">
         <v>15</v>
       </c>
@@ -56693,11 +56377,7 @@
           <t>1739990111001</t>
         </is>
       </c>
-      <c r="D1188" t="inlineStr">
-        <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="n">
         <v>11</v>
       </c>
@@ -56741,11 +56421,7 @@
           <t>1741990133999</t>
         </is>
       </c>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>ACOES ESSENCIAIS JUSTICA - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="n">
         <v>60</v>
       </c>
@@ -56885,11 +56561,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="n">
         <v>11</v>
       </c>
@@ -56933,11 +56605,7 @@
           <t>1741990140999</t>
         </is>
       </c>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>DESPORTO LAZER - OUTROS</t>
-        </is>
-      </c>
+      <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="n">
         <v>59</v>
       </c>
@@ -56983,7 +56651,7 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1194" t="n">
@@ -57031,7 +56699,7 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1195" t="n">
@@ -57079,7 +56747,7 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>DIR. HUMANOS CIDADANIA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
       <c r="E1196" t="n">
@@ -57221,11 +56889,7 @@
           <t>1751500102001</t>
         </is>
       </c>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - LC FEDERAL NO 87/96 - COTA PARTE DO ESTADO</t>
-        </is>
-      </c>
+      <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="n">
         <v>23</v>
       </c>
@@ -57893,11 +57557,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="n">
         <v>13</v>
       </c>
@@ -57941,11 +57601,7 @@
           <t>1751500109005</t>
         </is>
       </c>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>TRANSF. RECURSOS FUNDEB - PRINC. - PARCELA ADICIONAL ICMS - FEM - EXERCICIOS ANTERIORES</t>
-        </is>
-      </c>
+      <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="n">
         <v>23</v>
       </c>
@@ -58085,11 +57741,7 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
-        </is>
-      </c>
+      <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="n">
         <v>26</v>
       </c>
@@ -58133,11 +57785,7 @@
           <t>1792010101000</t>
         </is>
       </c>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
-        </is>
-      </c>
+      <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="n">
         <v>46</v>
       </c>
@@ -58469,11 +58117,7 @@
           <t>1911010104001</t>
         </is>
       </c>
-      <c r="D1225" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="n">
         <v>15</v>
       </c>
@@ -58661,11 +58305,7 @@
           <t>1911010109000</t>
         </is>
       </c>
-      <c r="D1229" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DESMONTE DE VEICULOS</t>
-        </is>
-      </c>
+      <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="n">
         <v>15</v>
       </c>
@@ -58853,11 +58493,7 @@
           <t>1911010304001</t>
         </is>
       </c>
-      <c r="D1233" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="n">
         <v>15</v>
       </c>
@@ -59101,11 +58737,7 @@
       <c r="E1238" t="n">
         <v>79</v>
       </c>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="n">
         <v>0</v>
       </c>
@@ -59333,11 +58965,7 @@
           <t>1911132101000</t>
         </is>
       </c>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISLACAO ANTICORRUPCAO ACORDOS LENIENCIA - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="n">
         <v>15</v>
       </c>
@@ -59477,11 +59105,7 @@
           <t>1921030101000</t>
         </is>
       </c>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>INDENIZACAO SINISTRO - PRINC.</t>
-        </is>
-      </c>
+      <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="n">
         <v>60</v>
       </c>
@@ -60149,11 +59773,7 @@
           <t>1922063299000</t>
         </is>
       </c>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="n">
         <v>25</v>
       </c>
@@ -61157,11 +60777,7 @@
           <t>1922990399000</t>
         </is>
       </c>
-      <c r="D1281" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1281" t="inlineStr"/>
       <c r="E1281" t="n">
         <v>60</v>
       </c>
@@ -61205,11 +60821,7 @@
           <t>1922990499000</t>
         </is>
       </c>
-      <c r="D1282" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - DA-MJM - DEMAIS</t>
-        </is>
-      </c>
+      <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="n">
         <v>60</v>
       </c>
@@ -61493,11 +61105,7 @@
           <t>1999992101000</t>
         </is>
       </c>
-      <c r="D1288" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - RECURSOS DE DEPOSITOS JUDICIAIS</t>
-        </is>
-      </c>
+      <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="n">
         <v>23</v>
       </c>
@@ -61733,11 +61341,7 @@
           <t>1999992113000</t>
         </is>
       </c>
-      <c r="D1293" t="inlineStr">
-        <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - CONVERSAO EM RENDA DE VALORES PENHORADOS EM ACOES JUDICIAIS</t>
-        </is>
-      </c>
+      <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="n">
         <v>15</v>
       </c>
@@ -62501,11 +62105,7 @@
           <t>2211020104000</t>
         </is>
       </c>
-      <c r="D1309" t="inlineStr">
-        <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
-        </is>
-      </c>
+      <c r="D1309" t="inlineStr"/>
       <c r="E1309" t="n">
         <v>48</v>
       </c>
@@ -62549,11 +62149,7 @@
           <t>2211020105000</t>
         </is>
       </c>
-      <c r="D1310" t="inlineStr">
-        <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
-        </is>
-      </c>
+      <c r="D1310" t="inlineStr"/>
       <c r="E1310" t="n">
         <v>48</v>
       </c>
@@ -63127,7 +62723,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - DEMAIS RECURSOS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
       <c r="E1322" t="n">
@@ -63173,11 +62769,7 @@
           <t>2999990104000</t>
         </is>
       </c>
-      <c r="D1323" t="inlineStr">
-        <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - ACORDO JUDICIAL DE REPARACAO INTEGRAL E DEFINITIVA</t>
-        </is>
-      </c>
+      <c r="D1323" t="inlineStr"/>
       <c r="E1323" t="n">
         <v>80</v>
       </c>
@@ -63221,11 +62813,7 @@
           <t>7215531102000</t>
         </is>
       </c>
-      <c r="D1324" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D1324" t="inlineStr"/>
       <c r="E1324" t="n">
         <v>75</v>
       </c>
@@ -63269,11 +62857,7 @@
           <t>7215531103000</t>
         </is>
       </c>
-      <c r="D1325" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1325" t="inlineStr"/>
       <c r="E1325" t="n">
         <v>75</v>
       </c>
@@ -63317,11 +62901,7 @@
           <t>7215532102000</t>
         </is>
       </c>
-      <c r="D1326" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - PENSAO</t>
-        </is>
-      </c>
+      <c r="D1326" t="inlineStr"/>
       <c r="E1326" t="n">
         <v>75</v>
       </c>
@@ -63365,11 +62945,7 @@
           <t>7215532103000</t>
         </is>
       </c>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - APOSENTADORIA</t>
-        </is>
-      </c>
+      <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="n">
         <v>75</v>
       </c>
@@ -63413,11 +62989,7 @@
           <t>7219991110051</t>
         </is>
       </c>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - ATIVO</t>
-        </is>
-      </c>
+      <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="n">
         <v>75</v>
       </c>
@@ -63461,11 +63033,7 @@
           <t>7219991110052</t>
         </is>
       </c>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRONAL MILITAR APOSENTADORIA - INATIVO</t>
-        </is>
-      </c>
+      <c r="D1329" t="inlineStr"/>
       <c r="E1329" t="n">
         <v>75</v>
       </c>
@@ -64085,11 +63653,7 @@
           <t>9114501101002</t>
         </is>
       </c>
-      <c r="D1342" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1342" t="inlineStr"/>
       <c r="E1342" t="n">
         <v>10</v>
       </c>
@@ -64229,11 +63793,7 @@
           <t>9114501201002</t>
         </is>
       </c>
-      <c r="D1345" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1345" t="inlineStr"/>
       <c r="E1345" t="n">
         <v>10</v>
       </c>
@@ -64901,11 +64461,7 @@
           <t>9719620102000</t>
         </is>
       </c>
-      <c r="D1359" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
-        </is>
-      </c>
+      <c r="D1359" t="inlineStr"/>
       <c r="E1359" t="n">
         <v>20</v>
       </c>
@@ -64949,11 +64505,7 @@
           <t>9719620103000</t>
         </is>
       </c>
-      <c r="D1360" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
-        </is>
-      </c>
+      <c r="D1360" t="inlineStr"/>
       <c r="E1360" t="n">
         <v>23</v>
       </c>
@@ -65093,11 +64645,7 @@
           <t>9911010104001</t>
         </is>
       </c>
-      <c r="D1363" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1363" t="inlineStr"/>
       <c r="E1363" t="n">
         <v>15</v>
       </c>
@@ -65141,11 +64689,7 @@
           <t>9911010304001</t>
         </is>
       </c>
-      <c r="D1364" t="inlineStr">
-        <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - DA - MULTA ISOLADA OBRIG. ACESSORIA - CESSAO DE DIREITOS CREDITORIOS - LEI ESTADUAL NO 19.266/10</t>
-        </is>
-      </c>
+      <c r="D1364" t="inlineStr"/>
       <c r="E1364" t="n">
         <v>15</v>
       </c>
